--- a/Input/Raw_Data.xlsx
+++ b/Input/Raw_Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI\Coop\BIBDA\指数检验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI\2178\Final_Paper\Final_Paper\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBF03B-949D-4350-BB6B-CC21E35640E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF075F-F3C8-4005-A8B6-3E6BC5AE0E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="17349" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="原始数据与PCA加权结果" sheetId="1" r:id="rId1"/>
+    <sheet name="RawData" sheetId="1" r:id="rId1"/>
     <sheet name="第1特征向量" sheetId="2" r:id="rId2"/>
     <sheet name="第2特征向量" sheetId="3" r:id="rId3"/>
     <sheet name="第1特征向量(归一化)" sheetId="4" r:id="rId4"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>动力煤价格指数(RMB):CCI5500(含税)</t>
   </si>
@@ -40,26 +40,39 @@
     <t>易煤指数:北方港:动力煤5500k0.8s</t>
   </si>
   <si>
-    <t>pc1</t>
-  </si>
-  <si>
-    <t>pc2</t>
-  </si>
-  <si>
     <t>时间</t>
   </si>
   <si>
-    <t>期货</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Futures</t>
+  </si>
+  <si>
+    <t>Spot_CCTD</t>
+  </si>
+  <si>
+    <t>Spot_Caigou</t>
+  </si>
+  <si>
+    <t>Spot_Yimei</t>
+  </si>
+  <si>
+    <t>Spot_PCA</t>
+  </si>
+  <si>
+    <t>Spot_CCI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="###,###,###,###,##0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +83,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -145,6 +165,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -160,3626 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>原始数据与PCA加权结果!$B$104:$B$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>551.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>543.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>505.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>487.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>469.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>479.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>523.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>548</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>547.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>558.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>596.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>592.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>577.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>573.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>556.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>555.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>552.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>552.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>595.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>605.25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>612</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>612.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>605.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92A9-4633-80C3-0AC03D8E29F7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1000052816"/>
-        <c:axId val="1000049072"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1000052816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1000049072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1000049072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1000052816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>原始数据与PCA加权结果!$B$137:$B$157</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>614.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>614.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>615.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>624.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>635.58000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>647.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>665.96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>747.24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>747.24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>846.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>917.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>934.14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>845.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>721.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>583.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>581.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>626.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>664</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>719.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-225E-475D-A68B-A1F78BD6D790}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="248186208"/>
-        <c:axId val="248179552"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="248186208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248179552"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="248179552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248186208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>原始数据与PCA加权结果!$H$119:$H$136</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>557.46907999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.84406000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>555.30460000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>549.59745999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>550.52431999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>550.01635999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>558.92344000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>562.09881999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>558.10904000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>569.16718000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>579.38705999999991</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>587.23964000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>594.04494</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>607.68426666666664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>601.52319999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>596.12328000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>579.73088000000007</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>585.12671999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F610-46F2-B1CC-C675A6654ECD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1000049488"/>
-        <c:axId val="1000055312"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1000049488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1000055312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1000055312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="720"/>
-          <c:min val="540"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1000049488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>原始数据与PCA加权结果!$H$137:$H$144</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>602.00126</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>597.32916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>606.27647999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>618.08549999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>665.58227999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>707.11134000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>699.42360000000008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>693.06402000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B837-4BA0-8232-A0D9C54FA5A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="248842832"/>
-        <c:axId val="248846160"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="248842832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248846160"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="248846160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248842832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>410936</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>410936</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56E7059-3EAF-42EF-B080-3BCA6076321E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>405493</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>405493</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF300CA-860F-46AA-AC70-FE8D7DA7EBA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>427265</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>182335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>427265</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E840070D-96E3-4016-8EB6-41DBE1F990FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>416379</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>182335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>416379</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713837B2-1F1B-451A-99BF-AAD5462FB28F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4103,44 +506,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="P152" sqref="P152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
+    <col min="2" max="2" width="22.3046875" customWidth="1"/>
+    <col min="3" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="24.61328125" customWidth="1"/>
+    <col min="5" max="5" width="24.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>43190</v>
       </c>
@@ -4156,11 +560,11 @@
       <c r="E2">
         <v>623.29999999999995</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
         <v>577.08709999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43197</v>
       </c>
@@ -4176,11 +580,11 @@
       <c r="E3">
         <v>623.29999999999995</v>
       </c>
-      <c r="H3" s="5">
+      <c r="G3" s="5">
         <v>566.22230000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43204</v>
       </c>
@@ -4196,11 +600,11 @@
       <c r="E4">
         <v>589.70000000000005</v>
       </c>
-      <c r="H4" s="5">
+      <c r="G4" s="5">
         <v>559.97718000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43211</v>
       </c>
@@ -4216,11 +620,11 @@
       <c r="E5">
         <v>569</v>
       </c>
-      <c r="H5" s="5">
+      <c r="G5" s="5">
         <v>585.26589999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43218</v>
       </c>
@@ -4236,11 +640,11 @@
       <c r="E6">
         <v>586</v>
       </c>
-      <c r="H6" s="5">
+      <c r="G6" s="5">
         <v>599.73991999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43225</v>
       </c>
@@ -4256,11 +660,11 @@
       <c r="E7">
         <v>592.9</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="5">
         <v>599.23196666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43232</v>
       </c>
@@ -4276,11 +680,11 @@
       <c r="E8">
         <v>613.5</v>
       </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5">
         <v>611.77792000000011</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43239</v>
       </c>
@@ -4296,11 +700,11 @@
       <c r="E9">
         <v>637.6</v>
       </c>
-      <c r="H9" s="5">
+      <c r="G9" s="5">
         <v>635.80813999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>43246</v>
       </c>
@@ -4316,11 +720,11 @@
       <c r="E10">
         <v>654.6</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5">
         <v>604.5481400000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43253</v>
       </c>
@@ -4336,11 +740,11 @@
       <c r="E11">
         <v>642.79999999999995</v>
       </c>
-      <c r="H11" s="5">
+      <c r="G11" s="5">
         <v>629.45519999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43260</v>
       </c>
@@ -4356,11 +760,11 @@
       <c r="E12">
         <v>688.3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="G12" s="5">
         <v>637.69974000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43267</v>
       </c>
@@ -4376,11 +780,11 @@
       <c r="E13">
         <v>701.7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="G13" s="5">
         <v>645.75829999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43274</v>
       </c>
@@ -4396,11 +800,11 @@
       <c r="E14">
         <v>688.7</v>
       </c>
-      <c r="H14" s="5">
+      <c r="G14" s="5">
         <v>643.25929999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43281</v>
       </c>
@@ -4416,11 +820,11 @@
       <c r="E15">
         <v>681.7</v>
       </c>
-      <c r="H15" s="5">
+      <c r="G15" s="5">
         <v>637.95797999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43288</v>
       </c>
@@ -4436,11 +840,11 @@
       <c r="E16">
         <v>682.2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="G16" s="5">
         <v>633.79315999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43295</v>
       </c>
@@ -4456,11 +860,11 @@
       <c r="E17">
         <v>686.4</v>
       </c>
-      <c r="H17" s="5">
+      <c r="G17" s="5">
         <v>625.89372000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43302</v>
       </c>
@@ -4476,11 +880,11 @@
       <c r="E18">
         <v>670.5</v>
       </c>
-      <c r="H18" s="5">
+      <c r="G18" s="5">
         <v>615.39475999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>43309</v>
       </c>
@@ -4496,11 +900,11 @@
       <c r="E19">
         <v>648.79999999999995</v>
       </c>
-      <c r="H19" s="5">
+      <c r="G19" s="5">
         <v>609.23091999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>43316</v>
       </c>
@@ -4516,11 +920,11 @@
       <c r="E20">
         <v>617.5</v>
       </c>
-      <c r="H20" s="5">
+      <c r="G20" s="5">
         <v>586.86766</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>43323</v>
       </c>
@@ -4536,11 +940,11 @@
       <c r="E21">
         <v>606.70000000000005</v>
       </c>
-      <c r="H21" s="5">
+      <c r="G21" s="5">
         <v>613.4994999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>43330</v>
       </c>
@@ -4556,11 +960,11 @@
       <c r="E22">
         <v>625.20000000000005</v>
       </c>
-      <c r="H22" s="5">
+      <c r="G22" s="5">
         <v>614.16765999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>43337</v>
       </c>
@@ -4576,11 +980,11 @@
       <c r="E23">
         <v>617.4</v>
       </c>
-      <c r="H23" s="5">
+      <c r="G23" s="5">
         <v>613.21188000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>43344</v>
       </c>
@@ -4596,11 +1000,11 @@
       <c r="E24">
         <v>622</v>
       </c>
-      <c r="H24" s="5">
+      <c r="G24" s="5">
         <v>619.95082000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>43351</v>
       </c>
@@ -4616,11 +1020,11 @@
       <c r="E25">
         <v>623.4</v>
       </c>
-      <c r="H25" s="5">
+      <c r="G25" s="5">
         <v>618.22537999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>43358</v>
       </c>
@@ -4636,11 +1040,11 @@
       <c r="E26">
         <v>634.4</v>
       </c>
-      <c r="H26" s="5">
+      <c r="G26" s="5">
         <v>629.28372000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>43365</v>
       </c>
@@ -4656,11 +1060,11 @@
       <c r="E27">
         <v>631.4</v>
       </c>
-      <c r="H27" s="5">
+      <c r="G27" s="5">
         <v>631.17336</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>43372</v>
       </c>
@@ -4676,11 +1080,11 @@
       <c r="E28">
         <v>636.20000000000005</v>
       </c>
-      <c r="H28" s="5">
+      <c r="G28" s="5">
         <v>632.78137500000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>43379</v>
       </c>
@@ -4696,9 +1100,9 @@
       <c r="E29">
         <v>636.20000000000005</v>
       </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>43386</v>
       </c>
@@ -4714,11 +1118,11 @@
       <c r="E30">
         <v>654.20000000000005</v>
       </c>
-      <c r="H30" s="5">
+      <c r="G30" s="5">
         <v>656.89067999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>43393</v>
       </c>
@@ -4734,11 +1138,11 @@
       <c r="E31">
         <v>671.5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="G31" s="5">
         <v>651.32808</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>43400</v>
       </c>
@@ -4754,11 +1158,11 @@
       <c r="E32">
         <v>667.7</v>
       </c>
-      <c r="H32" s="5">
+      <c r="G32" s="5">
         <v>633.52222000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>43407</v>
       </c>
@@ -4774,11 +1178,11 @@
       <c r="E33">
         <v>646.4</v>
       </c>
-      <c r="H33" s="5">
+      <c r="G33" s="5">
         <v>626.17948000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>43414</v>
       </c>
@@ -4794,11 +1198,11 @@
       <c r="E34">
         <v>650.5</v>
       </c>
-      <c r="H34" s="5">
+      <c r="G34" s="5">
         <v>615.77212000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>43421</v>
       </c>
@@ -4814,11 +1218,11 @@
       <c r="E35">
         <v>635.4</v>
       </c>
-      <c r="H35" s="5">
+      <c r="G35" s="5">
         <v>604.50744000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>43428</v>
       </c>
@@ -4834,11 +1238,11 @@
       <c r="E36">
         <v>627.29999999999995</v>
       </c>
-      <c r="H36" s="5">
+      <c r="G36" s="5">
         <v>600.05596000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>43435</v>
       </c>
@@ -4854,11 +1258,11 @@
       <c r="E37">
         <v>633</v>
       </c>
-      <c r="H37" s="5">
+      <c r="G37" s="5">
         <v>584.40224000000012</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>43442</v>
       </c>
@@ -4874,11 +1278,11 @@
       <c r="E38">
         <v>625.9</v>
       </c>
-      <c r="H38" s="5">
+      <c r="G38" s="5">
         <v>583.14146000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>43449</v>
       </c>
@@ -4894,11 +1298,11 @@
       <c r="E39">
         <v>619.9</v>
       </c>
-      <c r="H39" s="5">
+      <c r="G39" s="5">
         <v>580.79419999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>43456</v>
       </c>
@@ -4914,11 +1318,11 @@
       <c r="E40">
         <v>606.29999999999995</v>
       </c>
-      <c r="H40" s="5">
+      <c r="G40" s="5">
         <v>567.13980000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>43463</v>
       </c>
@@ -4934,11 +1338,11 @@
       <c r="E41">
         <v>583.4</v>
       </c>
-      <c r="H41" s="5">
+      <c r="G41" s="5">
         <v>562.80154000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>43470</v>
       </c>
@@ -4954,11 +1358,11 @@
       <c r="E42">
         <v>584</v>
       </c>
-      <c r="H42" s="5">
+      <c r="G42" s="5">
         <v>565.29399999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>43477</v>
       </c>
@@ -4974,11 +1378,11 @@
       <c r="E43">
         <v>590.1</v>
       </c>
-      <c r="H43" s="5">
+      <c r="G43" s="5">
         <v>566.09276</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43484</v>
       </c>
@@ -4994,11 +1398,11 @@
       <c r="E44">
         <v>582.9</v>
       </c>
-      <c r="H44" s="5">
+      <c r="G44" s="5">
         <v>583.0298600000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43491</v>
       </c>
@@ -5014,11 +1418,11 @@
       <c r="E45">
         <v>595</v>
       </c>
-      <c r="H45" s="5">
+      <c r="G45" s="5">
         <v>577.89301999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43498</v>
       </c>
@@ -5034,11 +1438,11 @@
       <c r="E46">
         <v>590.6</v>
       </c>
-      <c r="H46" s="5">
+      <c r="G46" s="5">
         <v>579.65442000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43505</v>
       </c>
@@ -5054,9 +1458,9 @@
       <c r="E47">
         <v>590.6</v>
       </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>43512</v>
       </c>
@@ -5072,11 +1476,11 @@
       <c r="E48">
         <v>592.20000000000005</v>
       </c>
-      <c r="H48" s="5">
+      <c r="G48" s="5">
         <v>585.21359999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>43519</v>
       </c>
@@ -5092,11 +1496,11 @@
       <c r="E49">
         <v>607.29999999999995</v>
       </c>
-      <c r="H49" s="5">
+      <c r="G49" s="5">
         <v>585.73224000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43526</v>
       </c>
@@ -5112,11 +1516,11 @@
       <c r="E50">
         <v>608.5</v>
       </c>
-      <c r="H50" s="5">
+      <c r="G50" s="5">
         <v>600.91866000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>43533</v>
       </c>
@@ -5132,11 +1536,11 @@
       <c r="E51">
         <v>632.6</v>
       </c>
-      <c r="H51" s="5">
+      <c r="G51" s="5">
         <v>608.18975999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>43540</v>
       </c>
@@ -5152,11 +1556,11 @@
       <c r="E52">
         <v>632.9</v>
       </c>
-      <c r="H52" s="5">
+      <c r="G52" s="5">
         <v>590.20155999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43547</v>
       </c>
@@ -5172,11 +1576,11 @@
       <c r="E53">
         <v>621.5</v>
       </c>
-      <c r="H53" s="5">
+      <c r="G53" s="5">
         <v>591.75852000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43554</v>
       </c>
@@ -5192,11 +1596,11 @@
       <c r="E54">
         <v>623.70000000000005</v>
       </c>
-      <c r="H54" s="5">
+      <c r="G54" s="5">
         <v>590.86059999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>43561</v>
       </c>
@@ -5215,14 +1619,11 @@
       <c r="F55">
         <v>623.99559318275271</v>
       </c>
-      <c r="G55">
-        <v>702.99887537333711</v>
-      </c>
-      <c r="H55" s="5">
+      <c r="G55" s="5">
         <v>603.72327499999994</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>43568</v>
       </c>
@@ -5241,14 +1642,11 @@
       <c r="F56">
         <v>627.76725899888913</v>
       </c>
-      <c r="G56">
-        <v>-558.54902961656694</v>
-      </c>
-      <c r="H56" s="5">
+      <c r="G56" s="5">
         <v>608.47528</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43575</v>
       </c>
@@ -5267,14 +1665,11 @@
       <c r="F57">
         <v>629.65029218906409</v>
       </c>
-      <c r="G57">
-        <v>1035.060683597211</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="G57" s="5">
         <v>603.06848000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>43582</v>
       </c>
@@ -5293,14 +1688,11 @@
       <c r="F58">
         <v>621.97590050049257</v>
       </c>
-      <c r="G58">
-        <v>1787.011808175128</v>
-      </c>
-      <c r="H58" s="5">
+      <c r="G58" s="5">
         <v>605.45873999999992</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>43589</v>
       </c>
@@ -5319,14 +1711,11 @@
       <c r="F59">
         <v>620.18249694071915</v>
       </c>
-      <c r="G59">
-        <v>591.96156027214181</v>
-      </c>
-      <c r="H59" s="5">
+      <c r="G59" s="5">
         <v>613.64249999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43596</v>
       </c>
@@ -5345,14 +1734,11 @@
       <c r="F60">
         <v>620.63477532273328</v>
       </c>
-      <c r="G60">
-        <v>470.57680190137393</v>
-      </c>
-      <c r="H60" s="5">
+      <c r="G60" s="5">
         <v>605.93259999999987</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>43603</v>
       </c>
@@ -5371,14 +1757,11 @@
       <c r="F61">
         <v>619.12486944273371</v>
       </c>
-      <c r="G61">
-        <v>607.48669984874846</v>
-      </c>
-      <c r="H61" s="5">
+      <c r="G61" s="5">
         <v>603.75108</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>43610</v>
       </c>
@@ -5397,14 +1780,11 @@
       <c r="F62">
         <v>617.90540530085877</v>
       </c>
-      <c r="G62">
-        <v>793.92199807078009</v>
-      </c>
-      <c r="H62" s="5">
+      <c r="G62" s="5">
         <v>596.25741999999991</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>43617</v>
       </c>
@@ -5423,14 +1803,11 @@
       <c r="F63">
         <v>609.79655275992195</v>
       </c>
-      <c r="G63">
-        <v>855.65733609759002</v>
-      </c>
-      <c r="H63" s="5">
+      <c r="G63" s="5">
         <v>582.11248000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43624</v>
       </c>
@@ -5449,14 +1826,11 @@
       <c r="F64">
         <v>605.04494393146967</v>
       </c>
-      <c r="G64">
-        <v>734.57964459184598</v>
-      </c>
-      <c r="H64" s="5">
+      <c r="G64" s="5">
         <v>579.31420000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>43631</v>
       </c>
@@ -5475,14 +1849,11 @@
       <c r="F65">
         <v>595.57284631388973</v>
       </c>
-      <c r="G65">
-        <v>605.47971591592056</v>
-      </c>
-      <c r="H65" s="5">
+      <c r="G65" s="5">
         <v>589.99212</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43638</v>
       </c>
@@ -5501,14 +1872,11 @@
       <c r="F66">
         <v>595.2322210265537</v>
       </c>
-      <c r="G66">
-        <v>585.67901727375022</v>
-      </c>
-      <c r="H66" s="5">
+      <c r="G66" s="5">
         <v>596.07150000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43645</v>
       </c>
@@ -5527,14 +1895,11 @@
       <c r="F67">
         <v>602.20416006816879</v>
       </c>
-      <c r="G67">
-        <v>515.54298962490634</v>
-      </c>
-      <c r="H67" s="5">
+      <c r="G67" s="5">
         <v>599.09192000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>43652</v>
       </c>
@@ -5553,14 +1918,11 @@
       <c r="F68">
         <v>611.14292836543018</v>
       </c>
-      <c r="G68">
-        <v>-149.13786999239861</v>
-      </c>
-      <c r="H68" s="5">
+      <c r="G68" s="5">
         <v>590.49625999999989</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>43659</v>
       </c>
@@ -5579,14 +1941,11 @@
       <c r="F69">
         <v>607.74974655563119</v>
       </c>
-      <c r="G69">
-        <v>407.45111162579298</v>
-      </c>
-      <c r="H69" s="5">
+      <c r="G69" s="5">
         <v>582.65585999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>43666</v>
       </c>
@@ -5605,14 +1964,11 @@
       <c r="F70">
         <v>597.14796631856859</v>
       </c>
-      <c r="G70">
-        <v>698.74509619276387</v>
-      </c>
-      <c r="H70" s="5">
+      <c r="G70" s="5">
         <v>581.06434000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43673</v>
       </c>
@@ -5631,14 +1987,11 @@
       <c r="F71">
         <v>593.69035599846154</v>
       </c>
-      <c r="G71">
-        <v>560.45097929426458</v>
-      </c>
-      <c r="H71" s="5">
+      <c r="G71" s="5">
         <v>588.73140000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>43680</v>
       </c>
@@ -5657,14 +2010,11 @@
       <c r="F72">
         <v>594.4285433796872</v>
       </c>
-      <c r="G72">
-        <v>583.81118542547665</v>
-      </c>
-      <c r="H72" s="5">
+      <c r="G72" s="5">
         <v>583.24594000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>43687</v>
       </c>
@@ -5683,14 +2033,11 @@
       <c r="F73">
         <v>588.37955001023033</v>
       </c>
-      <c r="G73">
-        <v>602.32290218117544</v>
-      </c>
-      <c r="H73" s="5">
+      <c r="G73" s="5">
         <v>573.42607999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>43694</v>
       </c>
@@ -5709,14 +2056,11 @@
       <c r="F74">
         <v>580.90044556029522</v>
       </c>
-      <c r="G74">
-        <v>610.34917946802705</v>
-      </c>
-      <c r="H74" s="5">
+      <c r="G74" s="5">
         <v>574.95744000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>43701</v>
       </c>
@@ -5735,14 +2079,11 @@
       <c r="F75">
         <v>583.51810137869847</v>
       </c>
-      <c r="G75">
-        <v>580.68392511746436</v>
-      </c>
-      <c r="H75" s="5">
+      <c r="G75" s="5">
         <v>579.85334</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>43708</v>
       </c>
@@ -5761,14 +2102,11 @@
       <c r="F76">
         <v>583.9743108924024</v>
       </c>
-      <c r="G76">
-        <v>596.7286041829293</v>
-      </c>
-      <c r="H76" s="5">
+      <c r="G76" s="5">
         <v>576.08276000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>43715</v>
       </c>
@@ -5787,14 +2125,11 @@
       <c r="F77">
         <v>580.8771361045043</v>
       </c>
-      <c r="G77">
-        <v>594.27728521253528</v>
-      </c>
-      <c r="H77" s="5">
+      <c r="G77" s="5">
         <v>582.08459999999991</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>43722</v>
       </c>
@@ -5813,14 +2148,11 @@
       <c r="F78">
         <v>582.14501266120772</v>
       </c>
-      <c r="G78">
-        <v>501.33095114386998</v>
-      </c>
-      <c r="H78" s="5">
+      <c r="G78" s="5">
         <v>584.58304999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>43729</v>
       </c>
@@ -5839,14 +2171,11 @@
       <c r="F79">
         <v>584.57227288461536</v>
       </c>
-      <c r="G79">
-        <v>616.31073243726644</v>
-      </c>
-      <c r="H79" s="5">
+      <c r="G79" s="5">
         <v>581.93032000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>43736</v>
       </c>
@@ -5865,14 +2194,11 @@
       <c r="F80">
         <v>585.55594743869835</v>
       </c>
-      <c r="G80">
-        <v>605.12954383748695</v>
-      </c>
-      <c r="H80" s="5">
+      <c r="G80" s="5">
         <v>573.68579999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>43743</v>
       </c>
@@ -5891,14 +2217,11 @@
       <c r="F81">
         <v>585.54545848264752</v>
       </c>
-      <c r="G81">
-        <v>614.84481062743237</v>
-      </c>
-      <c r="H81" s="5">
+      <c r="G81" s="5">
         <v>570.34460000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>43750</v>
       </c>
@@ -5917,14 +2240,11 @@
       <c r="F82">
         <v>584.19602008752133</v>
       </c>
-      <c r="G82">
-        <v>660.65528823587408</v>
-      </c>
-      <c r="H82" s="5">
+      <c r="G82" s="5">
         <v>566.45819999999992</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>43757</v>
       </c>
@@ -5943,14 +2263,11 @@
       <c r="F83">
         <v>578.23939123602679</v>
       </c>
-      <c r="G83">
-        <v>704.47846110801368</v>
-      </c>
-      <c r="H83" s="5">
+      <c r="G83" s="5">
         <v>558.33564000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>43764</v>
       </c>
@@ -5969,14 +2286,11 @@
       <c r="F84">
         <v>572.37225537301174</v>
       </c>
-      <c r="G84">
-        <v>636.68654928815317</v>
-      </c>
-      <c r="H84" s="5">
+      <c r="G84" s="5">
         <v>556.21582000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>43771</v>
       </c>
@@ -5995,14 +2309,11 @@
       <c r="F85">
         <v>565.58245689150067</v>
       </c>
-      <c r="G85">
-        <v>459.81033187199699</v>
-      </c>
-      <c r="H85" s="5">
+      <c r="G85" s="5">
         <v>550.20713999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>43778</v>
       </c>
@@ -6021,14 +2332,11 @@
       <c r="F86">
         <v>552.40618049123475</v>
       </c>
-      <c r="G86">
-        <v>443.76616007668389</v>
-      </c>
-      <c r="H86" s="5">
+      <c r="G86" s="5">
         <v>544.21154000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>43785</v>
       </c>
@@ -6047,14 +2355,11 @@
       <c r="F87">
         <v>550.45325101369815</v>
       </c>
-      <c r="G87">
-        <v>363.97218059238679</v>
-      </c>
-      <c r="H87" s="5">
+      <c r="G87" s="5">
         <v>550.31362000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>43792</v>
       </c>
@@ -6073,14 +2378,11 @@
       <c r="F88">
         <v>550.28253658805306</v>
       </c>
-      <c r="G88">
-        <v>327.79055529467149</v>
-      </c>
-      <c r="H88" s="5">
+      <c r="G88" s="5">
         <v>549.61545999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>43799</v>
       </c>
@@ -6099,14 +2401,11 @@
       <c r="F89">
         <v>549.7291947661073</v>
       </c>
-      <c r="G89">
-        <v>299.72750009098678</v>
-      </c>
-      <c r="H89" s="5">
+      <c r="G89" s="5">
         <v>545.24076000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>43806</v>
       </c>
@@ -6125,14 +2424,11 @@
       <c r="F90">
         <v>549.48199356186922</v>
       </c>
-      <c r="G90">
-        <v>651.01733423806695</v>
-      </c>
-      <c r="H90" s="5">
+      <c r="G90" s="5">
         <v>546.50636000000009</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>43813</v>
       </c>
@@ -6151,14 +2447,11 @@
       <c r="F91">
         <v>548.3353405264761</v>
       </c>
-      <c r="G91">
-        <v>618.4817852412981</v>
-      </c>
-      <c r="H91" s="5">
+      <c r="G91" s="5">
         <v>540.65454</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>43820</v>
       </c>
@@ -6177,14 +2470,11 @@
       <c r="F92">
         <v>548.08362612162421</v>
       </c>
-      <c r="G92">
-        <v>620.55476405029106</v>
-      </c>
-      <c r="H92" s="5">
+      <c r="G92" s="5">
         <v>547.29726000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>43827</v>
       </c>
@@ -6203,14 +2493,11 @@
       <c r="F93">
         <v>550.97332287191193</v>
       </c>
-      <c r="G93">
-        <v>660.29259501865488</v>
-      </c>
-      <c r="H93" s="5">
+      <c r="G93" s="5">
         <v>552.37488000000008</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>43834</v>
       </c>
@@ -6229,14 +2516,11 @@
       <c r="F94">
         <v>554.99452857285382</v>
       </c>
-      <c r="G94">
-        <v>622.61354001741574</v>
-      </c>
-      <c r="H94" s="5">
+      <c r="G94" s="5">
         <v>554.54442499999993</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>43841</v>
       </c>
@@ -6255,14 +2539,11 @@
       <c r="F95">
         <v>557.58943563771061</v>
       </c>
-      <c r="G95">
-        <v>611.7530235582027</v>
-      </c>
-      <c r="H95" s="5">
+      <c r="G95" s="5">
         <v>555.35738000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>43848</v>
       </c>
@@ -6281,14 +2562,11 @@
       <c r="F96">
         <v>560.99856753371853</v>
       </c>
-      <c r="G96">
-        <v>606.83130945715959</v>
-      </c>
-      <c r="H96" s="5">
+      <c r="G96" s="5">
         <v>552.56315999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>43855</v>
       </c>
@@ -6307,14 +2585,11 @@
       <c r="F97">
         <v>560.99856753371853</v>
       </c>
-      <c r="G97">
-        <v>606.83130945715959</v>
-      </c>
-      <c r="H97" s="5">
+      <c r="G97" s="5">
         <v>547.76245000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>43869</v>
       </c>
@@ -6333,14 +2608,11 @@
       <c r="F98">
         <v>566.96362048952653</v>
       </c>
-      <c r="G98">
-        <v>579.14718432633265</v>
-      </c>
-      <c r="H98" s="5">
+      <c r="G98" s="5">
         <v>563.05499999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>43876</v>
       </c>
@@ -6359,14 +2631,11 @@
       <c r="F99">
         <v>574.22703470323518</v>
       </c>
-      <c r="G99">
-        <v>587.18721378965938</v>
-      </c>
-      <c r="H99" s="5">
+      <c r="G99" s="5">
         <v>564.02880000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>43883</v>
       </c>
@@ -6385,14 +2654,11 @@
       <c r="F100">
         <v>575.66791257195052</v>
       </c>
-      <c r="G100">
-        <v>582.16130106952187</v>
-      </c>
-      <c r="H100" s="5">
+      <c r="G100" s="5">
         <v>552.09037999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>43890</v>
       </c>
@@ -6411,14 +2677,11 @@
       <c r="F101">
         <v>573.8834513702127</v>
       </c>
-      <c r="G101">
-        <v>616.46938630768614</v>
-      </c>
-      <c r="H101" s="5">
+      <c r="G101" s="5">
         <v>547.12023999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>43897</v>
       </c>
@@ -6437,14 +2700,11 @@
       <c r="F102">
         <v>570.78598890206501</v>
       </c>
-      <c r="G102">
-        <v>618.59123112683255</v>
-      </c>
-      <c r="H102" s="5">
+      <c r="G102" s="5">
         <v>544.82230000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>43904</v>
       </c>
@@ -6463,14 +2723,11 @@
       <c r="F103">
         <v>563.67914449549642</v>
       </c>
-      <c r="G103">
-        <v>620.41816318665587</v>
-      </c>
-      <c r="H103" s="5">
+      <c r="G103" s="5">
         <v>543.34547999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>43911</v>
       </c>
@@ -6489,14 +2746,11 @@
       <c r="F104">
         <v>553.49868193845646</v>
       </c>
-      <c r="G104">
-        <v>599.62050998944642</v>
-      </c>
-      <c r="H104" s="5">
+      <c r="G104" s="5">
         <v>536.4538</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>43918</v>
       </c>
@@ -6515,14 +2769,11 @@
       <c r="F105">
         <v>545.68914510998013</v>
       </c>
-      <c r="G105">
-        <v>618.56802612855199</v>
-      </c>
-      <c r="H105" s="5">
+      <c r="G105" s="5">
         <v>520.00957999999991</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>43925</v>
       </c>
@@ -6541,14 +2792,11 @@
       <c r="F106">
         <v>534.52497995359181</v>
       </c>
-      <c r="G106">
-        <v>2907.0983907154832</v>
-      </c>
-      <c r="H106" s="5">
+      <c r="G106" s="5">
         <v>504.54509999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>43932</v>
       </c>
@@ -6567,14 +2815,11 @@
       <c r="F107">
         <v>514.73530784354114</v>
       </c>
-      <c r="G107">
-        <v>5528.2297257930504</v>
-      </c>
-      <c r="H107" s="5">
+      <c r="G107" s="5">
         <v>497.04785000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>43939</v>
       </c>
@@ -6593,14 +2838,11 @@
       <c r="F108">
         <v>492.24712553429111</v>
       </c>
-      <c r="G108">
-        <v>2126.7030519997229</v>
-      </c>
-      <c r="H108" s="5">
+      <c r="G108" s="5">
         <v>489.22104000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>43946</v>
       </c>
@@ -6619,14 +2861,11 @@
       <c r="F109">
         <v>482.15467681572977</v>
       </c>
-      <c r="G109">
-        <v>2436.3306147852891</v>
-      </c>
-      <c r="H109" s="5">
+      <c r="G109" s="5">
         <v>491.95556000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>43953</v>
       </c>
@@ -6645,14 +2884,11 @@
       <c r="F110">
         <v>480.19815816577051</v>
       </c>
-      <c r="G110">
-        <v>964.75169674338372</v>
-      </c>
-      <c r="H110" s="5">
+      <c r="G110" s="5">
         <v>489.22104999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>43960</v>
       </c>
@@ -6671,14 +2907,11 @@
       <c r="F111">
         <v>471.24970356489553</v>
       </c>
-      <c r="G111">
-        <v>498.50735726931879</v>
-      </c>
-      <c r="H111" s="5">
+      <c r="G111" s="5">
         <v>498.01323333333335</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>43967</v>
       </c>
@@ -6697,14 +2930,11 @@
       <c r="F112">
         <v>478.82676432397022</v>
       </c>
-      <c r="G112">
-        <v>209.22130256340691</v>
-      </c>
-      <c r="H112" s="5">
+      <c r="G112" s="5">
         <v>517.62844000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>43974</v>
       </c>
@@ -6723,14 +2953,11 @@
       <c r="F113">
         <v>513.34350827589776</v>
       </c>
-      <c r="G113">
-        <v>-675.25537848292629</v>
-      </c>
-      <c r="H113" s="5">
+      <c r="G113" s="5">
         <v>537.95097999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>43981</v>
       </c>
@@ -6749,14 +2976,11 @@
       <c r="F114">
         <v>545.79169123838301</v>
       </c>
-      <c r="G114">
-        <v>365.60888989229028</v>
-      </c>
-      <c r="H114" s="5">
+      <c r="G114" s="5">
         <v>528.94615999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>43988</v>
       </c>
@@ -6775,14 +2999,11 @@
       <c r="F115">
         <v>545.79925339555564</v>
       </c>
-      <c r="G115">
-        <v>603.6157176428934</v>
-      </c>
-      <c r="H115" s="5">
+      <c r="G115" s="5">
         <v>526.29971999999987</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>43995</v>
       </c>
@@ -6801,14 +3022,11 @@
       <c r="F116">
         <v>554.05409716382758</v>
       </c>
-      <c r="G116">
-        <v>941.71439533877515</v>
-      </c>
-      <c r="H116" s="5">
+      <c r="G116" s="5">
         <v>544.83710000000008</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>44002</v>
       </c>
@@ -6827,14 +3045,11 @@
       <c r="F117">
         <v>568.23142984421224</v>
       </c>
-      <c r="G117">
-        <v>606.27625253034569</v>
-      </c>
-      <c r="H117" s="5">
+      <c r="G117" s="5">
         <v>541.72082</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>44009</v>
       </c>
@@ -6853,14 +3068,11 @@
       <c r="F118">
         <v>568.23142984421224</v>
       </c>
-      <c r="G118">
-        <v>606.27625253034569</v>
-      </c>
-      <c r="H118" s="5">
+      <c r="G118" s="5">
         <v>544.35239999999988</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>44016</v>
       </c>
@@ -6879,14 +3091,11 @@
       <c r="F119">
         <v>573.46247574907852</v>
       </c>
-      <c r="G119">
-        <v>762.59211216664073</v>
-      </c>
-      <c r="H119" s="5">
+      <c r="G119" s="5">
         <v>557.46907999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>44023</v>
       </c>
@@ -6905,14 +3114,11 @@
       <c r="F120">
         <v>591.92150262096607</v>
       </c>
-      <c r="G120">
-        <v>787.01273246236644</v>
-      </c>
-      <c r="H120" s="5">
+      <c r="G120" s="5">
         <v>555.84406000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>44030</v>
       </c>
@@ -6931,14 +3137,11 @@
       <c r="F121">
         <v>590.88202119429968</v>
       </c>
-      <c r="G121">
-        <v>503.30893486570312</v>
-      </c>
-      <c r="H121" s="5">
+      <c r="G121" s="5">
         <v>555.30460000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>44037</v>
       </c>
@@ -6957,14 +3160,11 @@
       <c r="F122">
         <v>578.44711166761533</v>
       </c>
-      <c r="G122">
-        <v>297.53489374689792</v>
-      </c>
-      <c r="H122" s="5">
+      <c r="G122" s="5">
         <v>549.59745999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>44044</v>
       </c>
@@ -6983,14 +3183,11 @@
       <c r="F123">
         <v>572.81967706831836</v>
       </c>
-      <c r="G123">
-        <v>507.67200855393162</v>
-      </c>
-      <c r="H123" s="5">
+      <c r="G123" s="5">
         <v>550.52431999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>44051</v>
       </c>
@@ -7009,14 +3206,11 @@
       <c r="F124">
         <v>566.07283832721669</v>
       </c>
-      <c r="G124">
-        <v>472.41489304933611</v>
-      </c>
-      <c r="H124" s="5">
+      <c r="G124" s="5">
         <v>550.01635999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>44058</v>
       </c>
@@ -7035,14 +3229,11 @@
       <c r="F125">
         <v>558.61137711256583</v>
       </c>
-      <c r="G125">
-        <v>538.63290660263272</v>
-      </c>
-      <c r="H125" s="5">
+      <c r="G125" s="5">
         <v>558.92344000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>44065</v>
       </c>
@@ -7061,14 +3252,11 @@
       <c r="F126">
         <v>559.00637513066124</v>
       </c>
-      <c r="G126">
-        <v>604.99486131559865</v>
-      </c>
-      <c r="H126" s="5">
+      <c r="G126" s="5">
         <v>562.09881999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>44072</v>
       </c>
@@ -7087,14 +3275,11 @@
       <c r="F127">
         <v>554.47812584477708</v>
       </c>
-      <c r="G127">
-        <v>572.70385885281632</v>
-      </c>
-      <c r="H127" s="5">
+      <c r="G127" s="5">
         <v>558.10904000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>44079</v>
       </c>
@@ -7113,14 +3298,11 @@
       <c r="F128">
         <v>555.28091152921979</v>
       </c>
-      <c r="G128">
-        <v>579.43467433354692</v>
-      </c>
-      <c r="H128" s="5">
+      <c r="G128" s="5">
         <v>569.16718000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>44086</v>
       </c>
@@ -7139,14 +3321,11 @@
       <c r="F129">
         <v>566.90703750280068</v>
       </c>
-      <c r="G129">
-        <v>927.5703936274125</v>
-      </c>
-      <c r="H129" s="5">
+      <c r="G129" s="5">
         <v>579.38705999999991</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>44093</v>
       </c>
@@ -7165,14 +3344,11 @@
       <c r="F130">
         <v>585.60233572384061</v>
       </c>
-      <c r="G130">
-        <v>868.66161388736259</v>
-      </c>
-      <c r="H130" s="5">
+      <c r="G130" s="5">
         <v>587.23964000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>44100</v>
       </c>
@@ -7191,14 +3367,11 @@
       <c r="F131">
         <v>594.15355605834486</v>
       </c>
-      <c r="G131">
-        <v>770.07234868664978</v>
-      </c>
-      <c r="H131" s="5">
+      <c r="G131" s="5">
         <v>594.04494</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>44107</v>
       </c>
@@ -7217,14 +3390,11 @@
       <c r="F132">
         <v>596.81164330626484</v>
       </c>
-      <c r="G132">
-        <v>949.85359604334985</v>
-      </c>
-      <c r="H132" s="5">
+      <c r="G132" s="5">
         <v>607.68426666666664</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>44114</v>
       </c>
@@ -7243,14 +3413,11 @@
       <c r="F133">
         <v>606.95762492154347</v>
       </c>
-      <c r="G133">
-        <v>1303.2229332073809</v>
-      </c>
-      <c r="H133" s="5">
+      <c r="G133" s="5">
         <v>601.52319999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>44121</v>
       </c>
@@ -7269,14 +3436,11 @@
       <c r="F134">
         <v>615.53283149579647</v>
       </c>
-      <c r="G134">
-        <v>714.97733526073648</v>
-      </c>
-      <c r="H134" s="5">
+      <c r="G134" s="5">
         <v>596.12328000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>44128</v>
       </c>
@@ -7295,14 +3459,11 @@
       <c r="F135">
         <v>609.49216612424618</v>
       </c>
-      <c r="G135">
-        <v>556.461838562455</v>
-      </c>
-      <c r="H135" s="5">
+      <c r="G135" s="5">
         <v>579.73088000000007</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>44135</v>
       </c>
@@ -7321,14 +3482,11 @@
       <c r="F136">
         <v>605.70936626265245</v>
       </c>
-      <c r="G136">
-        <v>698.12601599608695</v>
-      </c>
-      <c r="H136" s="5">
+      <c r="G136" s="5">
         <v>585.12671999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>44142</v>
       </c>
@@ -7347,14 +3505,11 @@
       <c r="F137">
         <v>614.26492533466603</v>
       </c>
-      <c r="G137">
-        <v>-1259.7378233481629</v>
-      </c>
-      <c r="H137" s="5">
+      <c r="G137" s="5">
         <v>602.00126</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>44149</v>
       </c>
@@ -7373,14 +3528,11 @@
       <c r="F138">
         <v>615.27564409050422</v>
       </c>
-      <c r="G138">
-        <v>88.917167166090337</v>
-      </c>
-      <c r="H138" s="5">
+      <c r="G138" s="5">
         <v>597.32916</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>44156</v>
       </c>
@@ -7399,14 +3551,11 @@
       <c r="F139">
         <v>616.20170807724958</v>
       </c>
-      <c r="G139">
-        <v>183.93667523215001</v>
-      </c>
-      <c r="H139" s="5">
+      <c r="G139" s="5">
         <v>606.27647999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>44163</v>
       </c>
@@ -7425,14 +3574,11 @@
       <c r="F140">
         <v>623.03596594530177</v>
       </c>
-      <c r="G140">
-        <v>181.7285794553602</v>
-      </c>
-      <c r="H140" s="5">
+      <c r="G140" s="5">
         <v>618.08549999999991</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>44170</v>
       </c>
@@ -7451,14 +3597,11 @@
       <c r="F141">
         <v>635.15337429632564</v>
       </c>
-      <c r="G141">
-        <v>356.08430599487889</v>
-      </c>
-      <c r="H141" s="5">
+      <c r="G141" s="5">
         <v>665.58227999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>44177</v>
       </c>
@@ -7477,14 +3620,11 @@
       <c r="F142">
         <v>649.62117287090109</v>
       </c>
-      <c r="G142">
-        <v>1788.1541490014199</v>
-      </c>
-      <c r="H142" s="5">
+      <c r="G142" s="5">
         <v>707.11134000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>44184</v>
       </c>
@@ -7503,14 +3643,11 @@
       <c r="F143">
         <v>680.62409117399739</v>
       </c>
-      <c r="G143">
-        <v>10488.24127623477</v>
-      </c>
-      <c r="H143" s="5">
+      <c r="G143" s="5">
         <v>699.42360000000008</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>44191</v>
       </c>
@@ -7529,10 +3666,7 @@
       <c r="F144">
         <v>749.34384835920923</v>
       </c>
-      <c r="G144">
-        <v>2029.898971668433</v>
-      </c>
-      <c r="H144" s="4">
+      <c r="G144" s="4">
         <v>693.06402000000003</v>
       </c>
     </row>
@@ -7555,8 +3689,8 @@
       <c r="F145">
         <v>749.4263975311203</v>
       </c>
-      <c r="G145">
-        <v>657.70397337637485</v>
+      <c r="G145" s="6">
+        <v>688.09752499999991</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.4">
@@ -7578,8 +3712,8 @@
       <c r="F146">
         <v>834.17991181909929</v>
       </c>
-      <c r="G146">
-        <v>1477.948130543652</v>
+      <c r="G146" s="6">
+        <v>700.23061999999993</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
@@ -7601,8 +3735,8 @@
       <c r="F147">
         <v>894.5279816183172</v>
       </c>
-      <c r="G147">
-        <v>2071.1138258445949</v>
+      <c r="G147" s="6">
+        <v>723.33058000000005</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
@@ -7624,8 +3758,8 @@
       <c r="F148">
         <v>925.35920017711294</v>
       </c>
-      <c r="G148">
-        <v>1395.2024336171451</v>
+      <c r="G148" s="6">
+        <v>687.57772</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.4">
@@ -7647,8 +3781,8 @@
       <c r="F149">
         <v>862.49326646398697</v>
       </c>
-      <c r="G149">
-        <v>47.541150100285734</v>
+      <c r="G149" s="6">
+        <v>650.70607999999993</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.4">
@@ -7670,8 +3804,8 @@
       <c r="F150">
         <v>757.18182238848613</v>
       </c>
-      <c r="G150">
-        <v>3157.111983785046</v>
+      <c r="G150" s="6">
+        <v>616.02549999999997</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.4">
@@ -7693,8 +3827,8 @@
       <c r="F151">
         <v>681.70053002620944</v>
       </c>
-      <c r="G151">
-        <v>5496.5985632523461</v>
+      <c r="G151" s="6">
+        <v>602.98114999999996</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.4">
@@ -7716,8 +3850,8 @@
       <c r="F152">
         <v>586.87120886176501</v>
       </c>
-      <c r="G152">
-        <v>986.02480762168852</v>
+      <c r="G152" s="6">
+        <v>609.5612799999999</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.4">
@@ -7739,8 +3873,8 @@
       <c r="F153">
         <v>585.46734581276905</v>
       </c>
-      <c r="G153">
-        <v>654.09074449416141</v>
+      <c r="G153" s="6">
+        <v>638.94427999999994</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.4">
@@ -7762,8 +3896,8 @@
       <c r="F154">
         <v>624.95858882790685</v>
       </c>
-      <c r="G154">
-        <v>1512.582802079675</v>
+      <c r="G154" s="6">
+        <v>642.27150000000006</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.4">
@@ -7785,8 +3919,8 @@
       <c r="F155">
         <v>633.58147402392922</v>
       </c>
-      <c r="G155">
-        <v>762.06925535975495</v>
+      <c r="G155" s="6">
+        <v>658.89152000000001</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.4">
@@ -7808,8 +3942,8 @@
       <c r="F156">
         <v>665.50384474586849</v>
       </c>
-      <c r="G156">
-        <v>1016.427692120647</v>
+      <c r="G156" s="6">
+        <v>685.07277999999997</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
@@ -7831,13 +3965,12 @@
       <c r="F157">
         <v>716.39577609559547</v>
       </c>
-      <c r="G157">
-        <v>1898.110039434996</v>
+      <c r="G157" s="6">
+        <v>724.86501999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7851,7 +3984,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9897,7 +6030,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -11943,7 +8076,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -13989,7 +10122,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -16035,7 +12168,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -18081,7 +14214,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
